--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn4-Ptprg.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cntn4-Ptprg.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.021109</v>
+        <v>0.006543333333333334</v>
       </c>
       <c r="H2">
-        <v>0.06332699999999999</v>
+        <v>0.01963</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>39.22741933333333</v>
+        <v>44.32896033333333</v>
       </c>
       <c r="N2">
-        <v>117.682258</v>
+        <v>132.986881</v>
       </c>
       <c r="O2">
-        <v>0.5358245643866983</v>
+        <v>0.5209689208718928</v>
       </c>
       <c r="P2">
-        <v>0.5358245643866985</v>
+        <v>0.5209689208718928</v>
       </c>
       <c r="Q2">
-        <v>0.8280515947073332</v>
+        <v>0.2900591637811111</v>
       </c>
       <c r="R2">
-        <v>7.452464352365999</v>
+        <v>2.61053247403</v>
       </c>
       <c r="S2">
-        <v>0.5358245643866983</v>
+        <v>0.5209689208718928</v>
       </c>
       <c r="T2">
-        <v>0.5358245643866985</v>
+        <v>0.5209689208718928</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.021109</v>
+        <v>0.006543333333333334</v>
       </c>
       <c r="H3">
-        <v>0.06332699999999999</v>
+        <v>0.01963</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>57.313275</v>
       </c>
       <c r="O3">
-        <v>0.2609557390583894</v>
+        <v>0.2245216581053889</v>
       </c>
       <c r="P3">
-        <v>0.2609557390583894</v>
+        <v>0.2245216581053888</v>
       </c>
       <c r="Q3">
-        <v>0.4032753073250001</v>
+        <v>0.1250066209166667</v>
       </c>
       <c r="R3">
-        <v>3.629477765925</v>
+        <v>1.12505958825</v>
       </c>
       <c r="S3">
-        <v>0.2609557390583894</v>
+        <v>0.2245216581053889</v>
       </c>
       <c r="T3">
-        <v>0.2609557390583894</v>
+        <v>0.2245216581053888</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.021109</v>
+        <v>0.006543333333333334</v>
       </c>
       <c r="H4">
-        <v>0.06332699999999999</v>
+        <v>0.01963</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.87760133333333</v>
+        <v>21.65606733333333</v>
       </c>
       <c r="N4">
-        <v>44.632804</v>
+        <v>64.96820199999999</v>
       </c>
       <c r="O4">
-        <v>0.2032196965549122</v>
+        <v>0.2545094210227183</v>
       </c>
       <c r="P4">
-        <v>0.2032196965549122</v>
+        <v>0.2545094210227183</v>
       </c>
       <c r="Q4">
-        <v>0.3140512865453333</v>
+        <v>0.1417028672511111</v>
       </c>
       <c r="R4">
-        <v>2.826461578908</v>
+        <v>1.27532580526</v>
       </c>
       <c r="S4">
-        <v>0.2032196965549122</v>
+        <v>0.2545094210227183</v>
       </c>
       <c r="T4">
-        <v>0.2032196965549122</v>
+        <v>0.2545094210227183</v>
       </c>
     </row>
   </sheetData>
